--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value613.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value613.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.50638575329592</v>
+        <v>0.964878261089325</v>
       </c>
       <c r="B1">
-        <v>3.616456390277221</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.039202190301375</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.473081748168686</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8958788071687808</v>
+        <v>1.105479836463928</v>
       </c>
     </row>
   </sheetData>
